--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7479302-197D-4FED-AC47-A39AFC55B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -546,15 +547,6 @@
   </si>
   <si>
     <t>共用代碼檔
-01:木造
-02:鋼造
-03:混凝土造
-04:鋼筋混凝土造
-05:石造
-06:磚造</t>
-  </si>
-  <si>
-    <t>共用代碼檔
 01:公寓
 02:電梯大廈
 03:套房
@@ -649,11 +641,39 @@
     <t>findBdLocationEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>共用代碼檔
+01:磚水泥
+02:鋼筋水泥
+03:鋼骨水泥
+04:磚造
+05:鋼骨鋼筋混凝土造
+06:鋼筋混凝土加強磚造
+07:鋼造
+08:混凝土造
+09:磚鐵皮
+10:石造
+11:木造
+12:鐵皮造
+13:壁式預鑄鋼筋混凝土造
+14:預力混凝土造
+15:土造
+16:土石造
+17:土磚石混合造
+18:加強磚
+19:竹造
+20:鋼筋混凝土加強空心磚造
+21:土木造
+22:鋁架造
+30:見使用執照
+31:見其它登記事項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -886,7 +906,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,6 +997,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1012,6 +1049,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1187,11 +1241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1278,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>27</v>
@@ -1602,10 +1656,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -1626,7 +1680,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>3</v>
@@ -1700,7 +1754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>20</v>
       </c>
@@ -1718,7 +1772,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1739,7 +1793,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1840,7 +1894,7 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1880,7 +1934,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1888,13 +1942,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="18">
         <v>16</v>
@@ -2000,10 +2054,10 @@
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2011,13 +2065,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="18">
         <v>16</v>
@@ -2356,10 +2410,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
@@ -2404,18 +2458,18 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7479302-197D-4FED-AC47-A39AFC55B8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDB71F-2030-47E7-8E0B-535BB1B05520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
   </si>
   <si>
     <t>擔保品編號</t>
@@ -1244,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1261,14 +1258,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1278,10 +1275,10 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1289,11 +1286,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1302,14 +1299,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1317,11 +1314,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1330,11 +1327,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="15"/>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -1380,20 +1377,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1401,20 +1398,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1422,13 +1419,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="18">
         <v>7</v>
@@ -1441,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -1454,7 +1451,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1475,7 +1472,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
@@ -1496,7 +1493,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1504,13 +1501,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E15" s="18">
         <v>40</v>
@@ -1523,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
@@ -1542,13 +1539,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E17" s="18">
         <v>5</v>
@@ -1561,13 +1558,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E18" s="18">
         <v>5</v>
@@ -1580,13 +1577,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E19" s="18">
         <v>5</v>
@@ -1599,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E20" s="18">
         <v>5</v>
@@ -1618,13 +1615,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E21" s="18">
         <v>5</v>
@@ -1637,13 +1634,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E22" s="18">
         <v>5</v>
@@ -1656,10 +1653,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -1669,7 +1666,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1677,10 +1674,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>3</v>
@@ -1690,7 +1687,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,13 +1695,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="18">
         <v>150</v>
@@ -1717,10 +1714,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -1730,7 +1727,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1738,10 +1735,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -1751,7 +1748,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="405" x14ac:dyDescent="0.3">
@@ -1759,10 +1756,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
@@ -1772,7 +1769,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1780,10 +1777,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
@@ -1793,7 +1790,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,10 +1798,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>19</v>
@@ -1820,13 +1817,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="18">
         <v>7</v>
@@ -1839,10 +1836,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>19</v>
@@ -1860,10 +1857,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>19</v>
@@ -1881,20 +1878,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="18">
         <v>2</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1902,13 +1899,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="18">
         <v>8</v>
@@ -1921,10 +1918,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>3</v>
@@ -1934,7 +1931,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1942,13 +1939,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="18">
         <v>16</v>
@@ -1963,10 +1960,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>3</v>
@@ -1982,13 +1979,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="18">
         <v>100</v>
@@ -2001,10 +1998,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>19</v>
@@ -2022,13 +2019,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="18">
         <v>8</v>
@@ -2041,10 +2038,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>3</v>
@@ -2054,10 +2051,10 @@
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2065,13 +2062,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="18">
         <v>16</v>
@@ -2087,10 +2084,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
@@ -2100,7 +2097,7 @@
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2108,10 +2105,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
@@ -2127,13 +2124,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2439,37 +2436,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDB71F-2030-47E7-8E0B-535BB1B05520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C389EFAA-61C5-4F2B-B988-8AC58A4091F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1529,7 @@
         <v>96</v>
       </c>
       <c r="E16" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1548,7 +1548,7 @@
         <v>96</v>
       </c>
       <c r="E17" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1567,7 +1567,7 @@
         <v>96</v>
       </c>
       <c r="E18" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1586,7 +1586,7 @@
         <v>96</v>
       </c>
       <c r="E19" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1605,7 +1605,7 @@
         <v>96</v>
       </c>
       <c r="E20" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1624,7 +1624,7 @@
         <v>96</v>
       </c>
       <c r="E21" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1643,7 +1643,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C389EFAA-61C5-4F2B-B988-8AC58A4091F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77972E-86B3-481B-B39C-2A8963102867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -625,10 +625,6 @@
   <si>
     <t>ParkingArea</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityCode = ,AND AreaCode = ,AND IrCode = ,AND BdNo1 = ,AND BdNo2 =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1 Asc ,ClCode2 Asc ,ClNo Asc</t>
@@ -665,6 +661,10 @@
 30:見使用執照
 31:見其它登記事項</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdLocation = ,AND CityCode = ,AND AreaCode = ,AND IrCode = ,AND BdNo1 = ,AND BdNo2 =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,11 +830,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -842,9 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,16 +852,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,9 +869,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -890,9 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1241,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1250,1145 +1241,1145 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="72.88671875" style="4"/>
+    <col min="8" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>5</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>40</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>10</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>10</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>10</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>10</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>10</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>10</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>10</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>5</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>150</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>2</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>1</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="405" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>2</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>142</v>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>2</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>3</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>7</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>16</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>16</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>2</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>2</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>8</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>2</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>16</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>2</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>10</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>31</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <v>100</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>32</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <v>16</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>2</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>33</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <v>8</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>34</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <v>1</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="20" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>35</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>16</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>2</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>36</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>1</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <v>37</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <v>12</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>38</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="16">
         <v>8</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <v>39</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>40</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>6</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+      <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>42</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="16">
         <v>6</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2410,9 +2401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2424,13 +2415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2460,13 +2451,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClBuilding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77972E-86B3-481B-B39C-2A8963102867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9B5DB-66B1-46B0-A7BD-70D0FF767511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateDate</t>
@@ -663,7 +660,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BdLocation = ,AND CityCode = ,AND AreaCode = ,AND IrCode = ,AND BdNo1 = ,AND BdNo2 =</t>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CityCode = ,AND AreaCode = ,AND IrCode = ,AND BdNo1 = ,AND BdNo2 =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -910,9 +910,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -950,9 +950,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,26 +985,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,26 +1020,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1232,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1249,14 +1215,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -1266,10 +1232,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1277,11 +1243,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="9"/>
@@ -1290,14 +1256,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1305,11 +1271,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="9"/>
@@ -1318,11 +1284,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9"/>
@@ -1331,7 +1297,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="13"/>
@@ -1342,7 +1308,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -1368,20 +1334,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,20 +1355,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="16">
         <v>2</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1410,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
@@ -1429,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>3</v>
@@ -1442,7 +1408,7 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1450,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>3</v>
@@ -1463,7 +1429,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1471,10 +1437,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>3</v>
@@ -1484,7 +1450,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1492,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="16">
         <v>40</v>
@@ -1511,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="16">
         <v>10</v>
@@ -1530,13 +1496,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="16">
         <v>10</v>
@@ -1549,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="16">
         <v>10</v>
@@ -1568,13 +1534,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="16">
         <v>10</v>
@@ -1587,13 +1553,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="16">
         <v>10</v>
@@ -1606,13 +1572,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="16">
         <v>10</v>
@@ -1625,13 +1591,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="16">
         <v>10</v>
@@ -1644,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>3</v>
@@ -1657,7 +1623,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,10 +1631,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>3</v>
@@ -1678,7 +1644,7 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,13 +1652,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="16">
         <v>150</v>
@@ -1705,10 +1671,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>3</v>
@@ -1718,7 +1684,7 @@
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1726,10 +1692,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>3</v>
@@ -1739,7 +1705,7 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="405" x14ac:dyDescent="0.3">
@@ -1747,10 +1713,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>3</v>
@@ -1760,7 +1726,7 @@
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1768,10 +1734,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>3</v>
@@ -1781,7 +1747,7 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1789,13 +1755,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16">
         <v>3</v>
@@ -1808,13 +1774,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="16">
         <v>7</v>
@@ -1827,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16">
         <v>16</v>
@@ -1848,13 +1814,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16">
         <v>16</v>
@@ -1869,20 +1835,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="16">
         <v>2</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1890,13 +1856,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="16">
         <v>8</v>
@@ -1909,10 +1875,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>3</v>
@@ -1922,7 +1888,7 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1930,13 +1896,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="16">
         <v>16</v>
@@ -1951,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>3</v>
@@ -1970,13 +1936,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" s="16">
         <v>100</v>
@@ -1989,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16">
         <v>16</v>
@@ -2010,13 +1976,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="16">
         <v>8</v>
@@ -2029,10 +1995,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>3</v>
@@ -2042,10 +2008,10 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2053,13 +2019,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="16">
         <v>16</v>
@@ -2075,10 +2041,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>3</v>
@@ -2088,7 +2054,7 @@
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2096,10 +2062,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>3</v>
@@ -2115,13 +2081,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="16">
         <v>8</v>
@@ -2134,13 +2100,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="D47" s="16" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2151,10 +2117,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>3</v>
@@ -2170,13 +2136,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D49" s="16" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -2190,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>3</v>
@@ -2403,7 +2369,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2427,37 +2393,37 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
